--- a/natmiOut/OldD2/LR-pairs_lrc2p/F2-Gp1ba.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/F2-Gp1ba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Gp1ba</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H2">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I2">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J2">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.24739225000338</v>
+        <v>3.2518115</v>
       </c>
       <c r="N2">
-        <v>3.24739225000338</v>
+        <v>6.503622999999999</v>
       </c>
       <c r="O2">
-        <v>0.2993073609606174</v>
+        <v>0.2617763977697</v>
       </c>
       <c r="P2">
-        <v>0.2993073609606174</v>
+        <v>0.2047449818594686</v>
       </c>
       <c r="Q2">
-        <v>6.187532015795087</v>
+        <v>6.224573673844749</v>
       </c>
       <c r="R2">
-        <v>6.187532015795087</v>
+        <v>24.898294695379</v>
       </c>
       <c r="S2">
-        <v>0.1802928078820245</v>
+        <v>0.138869477696525</v>
       </c>
       <c r="T2">
-        <v>0.1802928078820245</v>
+        <v>0.09150098406219032</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H3">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I3">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J3">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.934066310413586</v>
+        <v>1.145672333333333</v>
       </c>
       <c r="N3">
-        <v>0.934066310413586</v>
+        <v>3.437017</v>
       </c>
       <c r="O3">
-        <v>0.08609151614863289</v>
+        <v>0.09222858595721402</v>
       </c>
       <c r="P3">
-        <v>0.08609151614863289</v>
+        <v>0.1082030713212751</v>
       </c>
       <c r="Q3">
-        <v>1.779755802691726</v>
+        <v>2.193030513890167</v>
       </c>
       <c r="R3">
-        <v>1.779755802691726</v>
+        <v>13.158183083341</v>
       </c>
       <c r="S3">
-        <v>0.0518586683984027</v>
+        <v>0.04892624266239268</v>
       </c>
       <c r="T3">
-        <v>0.0518586683984027</v>
+        <v>0.04835619127038532</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H4">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I4">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J4">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.05149290086781</v>
+        <v>1.087628</v>
       </c>
       <c r="N4">
-        <v>2.05149290086781</v>
+        <v>3.262884</v>
       </c>
       <c r="O4">
-        <v>0.1890830792576864</v>
+        <v>0.08755591766418912</v>
       </c>
       <c r="P4">
-        <v>0.1890830792576864</v>
+        <v>0.1027210718378895</v>
       </c>
       <c r="Q4">
-        <v>3.90888350622956</v>
+        <v>2.081922834622</v>
       </c>
       <c r="R4">
-        <v>3.90888350622956</v>
+        <v>12.491537007732</v>
       </c>
       <c r="S4">
-        <v>0.1138973634759128</v>
+        <v>0.0464474439210625</v>
       </c>
       <c r="T4">
-        <v>0.1138973634759128</v>
+        <v>0.0459062736079222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H5">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I5">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J5">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.41269662219061</v>
+        <v>2.111355666666667</v>
       </c>
       <c r="N5">
-        <v>2.41269662219061</v>
+        <v>6.334067</v>
       </c>
       <c r="O5">
-        <v>0.222374694275296</v>
+        <v>0.1699677490010241</v>
       </c>
       <c r="P5">
-        <v>0.222374694275296</v>
+        <v>0.19940707402807</v>
       </c>
       <c r="Q5">
-        <v>4.597115606896434</v>
+        <v>4.041528513831834</v>
       </c>
       <c r="R5">
-        <v>4.597115606896434</v>
+        <v>24.249171082991</v>
       </c>
       <c r="S5">
-        <v>0.1339511260402153</v>
+        <v>0.09016600705840373</v>
       </c>
       <c r="T5">
-        <v>0.1339511260402153</v>
+        <v>0.08911546127686762</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H6">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I6">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J6">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.20404248070245</v>
+        <v>2.575657333333333</v>
       </c>
       <c r="N6">
-        <v>2.20404248070245</v>
+        <v>7.726972</v>
       </c>
       <c r="O6">
-        <v>0.2031433493577673</v>
+        <v>0.207344828754407</v>
       </c>
       <c r="P6">
-        <v>0.2031433493577673</v>
+        <v>0.2432580643079437</v>
       </c>
       <c r="Q6">
-        <v>4.199549165489522</v>
+        <v>4.930288496092667</v>
       </c>
       <c r="R6">
-        <v>4.199549165489522</v>
+        <v>29.581730976556</v>
       </c>
       <c r="S6">
-        <v>0.122366802943714</v>
+        <v>0.1099941336099046</v>
       </c>
       <c r="T6">
-        <v>0.122366802943714</v>
+        <v>0.1087125655686055</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.41258961714425</v>
+        <v>1.9141865</v>
       </c>
       <c r="H7">
-        <v>0.41258961714425</v>
+        <v>3.828373</v>
       </c>
       <c r="I7">
-        <v>0.1304357351567513</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J7">
-        <v>0.1304357351567513</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.24739225000338</v>
+        <v>2.249971</v>
       </c>
       <c r="N7">
-        <v>3.24739225000338</v>
+        <v>4.499942</v>
       </c>
       <c r="O7">
-        <v>0.2993073609606174</v>
+        <v>0.1811265208534658</v>
       </c>
       <c r="P7">
-        <v>0.2993073609606174</v>
+        <v>0.141665736645353</v>
       </c>
       <c r="Q7">
-        <v>1.339840325146099</v>
+        <v>4.3068641135915</v>
       </c>
       <c r="R7">
-        <v>1.339840325146099</v>
+        <v>17.227456454366</v>
       </c>
       <c r="S7">
-        <v>0.03904037566472524</v>
+        <v>0.09608561185121835</v>
       </c>
       <c r="T7">
-        <v>0.03904037566472524</v>
+        <v>0.06331073022264372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.41258961714425</v>
+        <v>0.524746</v>
       </c>
       <c r="H8">
-        <v>0.41258961714425</v>
+        <v>1.574238</v>
       </c>
       <c r="I8">
-        <v>0.1304357351567513</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J8">
-        <v>0.1304357351567513</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.934066310413586</v>
+        <v>3.2518115</v>
       </c>
       <c r="N8">
-        <v>0.934066310413586</v>
+        <v>6.503622999999999</v>
       </c>
       <c r="O8">
-        <v>0.08609151614863289</v>
+        <v>0.2617763977697</v>
       </c>
       <c r="P8">
-        <v>0.08609151614863289</v>
+        <v>0.2047449818594686</v>
       </c>
       <c r="Q8">
-        <v>0.3853860614008837</v>
+        <v>1.706375077379</v>
       </c>
       <c r="R8">
-        <v>0.3853860614008837</v>
+        <v>10.238250464274</v>
       </c>
       <c r="S8">
-        <v>0.01122941019960626</v>
+        <v>0.03806901936845795</v>
       </c>
       <c r="T8">
-        <v>0.01122941019960626</v>
+        <v>0.03762546808999394</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.41258961714425</v>
+        <v>0.524746</v>
       </c>
       <c r="H9">
-        <v>0.41258961714425</v>
+        <v>1.574238</v>
       </c>
       <c r="I9">
-        <v>0.1304357351567513</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J9">
-        <v>0.1304357351567513</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.05149290086781</v>
+        <v>1.145672333333333</v>
       </c>
       <c r="N9">
-        <v>2.05149290086781</v>
+        <v>3.437017</v>
       </c>
       <c r="O9">
-        <v>0.1890830792576864</v>
+        <v>0.09222858595721402</v>
       </c>
       <c r="P9">
-        <v>0.1890830792576864</v>
+        <v>0.1082030713212751</v>
       </c>
       <c r="Q9">
-        <v>0.8464246705431967</v>
+        <v>0.6011869742273335</v>
       </c>
       <c r="R9">
-        <v>0.8464246705431967</v>
+        <v>5.410682768046</v>
       </c>
       <c r="S9">
-        <v>0.0246631904486786</v>
+        <v>0.01341240789866605</v>
       </c>
       <c r="T9">
-        <v>0.0246631904486786</v>
+        <v>0.01988420507435113</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.41258961714425</v>
+        <v>0.524746</v>
       </c>
       <c r="H10">
-        <v>0.41258961714425</v>
+        <v>1.574238</v>
       </c>
       <c r="I10">
-        <v>0.1304357351567513</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J10">
-        <v>0.1304357351567513</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.41269662219061</v>
+        <v>1.087628</v>
       </c>
       <c r="N10">
-        <v>2.41269662219061</v>
+        <v>3.262884</v>
       </c>
       <c r="O10">
-        <v>0.222374694275296</v>
+        <v>0.08755591766418912</v>
       </c>
       <c r="P10">
-        <v>0.222374694275296</v>
+        <v>0.1027210718378895</v>
       </c>
       <c r="Q10">
-        <v>0.995453575634849</v>
+        <v>0.570728442488</v>
       </c>
       <c r="R10">
-        <v>0.995453575634849</v>
+        <v>5.136555982392</v>
       </c>
       <c r="S10">
-        <v>0.02900560672805605</v>
+        <v>0.01273288177917976</v>
       </c>
       <c r="T10">
-        <v>0.02900560672805605</v>
+        <v>0.01887679187790433</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.41258961714425</v>
+        <v>0.524746</v>
       </c>
       <c r="H11">
-        <v>0.41258961714425</v>
+        <v>1.574238</v>
       </c>
       <c r="I11">
-        <v>0.1304357351567513</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J11">
-        <v>0.1304357351567513</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.20404248070245</v>
+        <v>2.111355666666667</v>
       </c>
       <c r="N11">
-        <v>2.20404248070245</v>
+        <v>6.334067</v>
       </c>
       <c r="O11">
-        <v>0.2031433493577673</v>
+        <v>0.1699677490010241</v>
       </c>
       <c r="P11">
-        <v>0.2031433493577673</v>
+        <v>0.19940707402807</v>
       </c>
       <c r="Q11">
-        <v>0.909365043282687</v>
+        <v>1.107925440660667</v>
       </c>
       <c r="R11">
-        <v>0.909365043282687</v>
+        <v>9.971328965946</v>
       </c>
       <c r="S11">
-        <v>0.02649715211568514</v>
+        <v>0.02471768113497255</v>
       </c>
       <c r="T11">
-        <v>0.02649715211568514</v>
+        <v>0.03664453425242879</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.501255996428986</v>
+        <v>0.524746</v>
       </c>
       <c r="H12">
-        <v>0.501255996428986</v>
+        <v>1.574238</v>
       </c>
       <c r="I12">
-        <v>0.1584666498601826</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J12">
-        <v>0.1584666498601826</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.24739225000338</v>
+        <v>2.575657333333333</v>
       </c>
       <c r="N12">
-        <v>3.24739225000338</v>
+        <v>7.726972</v>
       </c>
       <c r="O12">
-        <v>0.2993073609606174</v>
+        <v>0.207344828754407</v>
       </c>
       <c r="P12">
-        <v>0.2993073609606174</v>
+        <v>0.2432580643079437</v>
       </c>
       <c r="Q12">
-        <v>1.627774838071211</v>
+        <v>1.351565883037334</v>
       </c>
       <c r="R12">
-        <v>1.627774838071211</v>
+        <v>12.164092947336</v>
       </c>
       <c r="S12">
-        <v>0.04743023476992145</v>
+        <v>0.03015326961885012</v>
       </c>
       <c r="T12">
-        <v>0.04743023476992145</v>
+        <v>0.04470291995988646</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.501255996428986</v>
+        <v>0.524746</v>
       </c>
       <c r="H13">
-        <v>0.501255996428986</v>
+        <v>1.574238</v>
       </c>
       <c r="I13">
-        <v>0.1584666498601826</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J13">
-        <v>0.1584666498601826</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.934066310413586</v>
+        <v>2.249971</v>
       </c>
       <c r="N13">
-        <v>0.934066310413586</v>
+        <v>4.499942</v>
       </c>
       <c r="O13">
-        <v>0.08609151614863289</v>
+        <v>0.1811265208534658</v>
       </c>
       <c r="P13">
-        <v>0.08609151614863289</v>
+        <v>0.141665736645353</v>
       </c>
       <c r="Q13">
-        <v>0.4682063391571086</v>
+        <v>1.180663282366</v>
       </c>
       <c r="R13">
-        <v>0.4682063391571086</v>
+        <v>7.083979694196</v>
       </c>
       <c r="S13">
-        <v>0.01364263414545767</v>
+        <v>0.02634045349106758</v>
       </c>
       <c r="T13">
-        <v>0.01364263414545767</v>
+        <v>0.02603355454764575</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.501255996428986</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H14">
-        <v>0.501255996428986</v>
+        <v>0.370337</v>
       </c>
       <c r="I14">
-        <v>0.1584666498601826</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J14">
-        <v>0.1584666498601826</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.05149290086781</v>
+        <v>3.2518115</v>
       </c>
       <c r="N14">
-        <v>2.05149290086781</v>
+        <v>6.503622999999999</v>
       </c>
       <c r="O14">
-        <v>0.1890830792576864</v>
+        <v>0.2617763977697</v>
       </c>
       <c r="P14">
-        <v>0.1890830792576864</v>
+        <v>0.2047449818594686</v>
       </c>
       <c r="Q14">
-        <v>1.028323118191485</v>
+        <v>0.4014220384918333</v>
       </c>
       <c r="R14">
-        <v>1.028323118191485</v>
+        <v>2.408532230951</v>
       </c>
       <c r="S14">
-        <v>0.02996336211521295</v>
+        <v>0.008955676604081855</v>
       </c>
       <c r="T14">
-        <v>0.02996336211521295</v>
+        <v>0.008851331867255195</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.501255996428986</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H15">
-        <v>0.501255996428986</v>
+        <v>0.370337</v>
       </c>
       <c r="I15">
-        <v>0.1584666498601826</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J15">
-        <v>0.1584666498601826</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>2.41269662219061</v>
+        <v>1.145672333333333</v>
       </c>
       <c r="N15">
-        <v>2.41269662219061</v>
+        <v>3.437017</v>
       </c>
       <c r="O15">
-        <v>0.222374694275296</v>
+        <v>0.09222858595721402</v>
       </c>
       <c r="P15">
-        <v>0.222374694275296</v>
+        <v>0.1082030713212751</v>
       </c>
       <c r="Q15">
-        <v>1.209378649437003</v>
+        <v>0.1414282849698889</v>
       </c>
       <c r="R15">
-        <v>1.209378649437003</v>
+        <v>1.272854564729</v>
       </c>
       <c r="S15">
-        <v>0.0352389728154885</v>
+        <v>0.003155247747779108</v>
       </c>
       <c r="T15">
-        <v>0.0352389728154885</v>
+        <v>0.00467772779885886</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.501255996428986</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H16">
-        <v>0.501255996428986</v>
+        <v>0.370337</v>
       </c>
       <c r="I16">
-        <v>0.1584666498601826</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J16">
-        <v>0.1584666498601826</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.20404248070245</v>
+        <v>1.087628</v>
       </c>
       <c r="N16">
-        <v>2.20404248070245</v>
+        <v>3.262884</v>
       </c>
       <c r="O16">
-        <v>0.2031433493577673</v>
+        <v>0.08755591766418912</v>
       </c>
       <c r="P16">
-        <v>0.2031433493577673</v>
+        <v>0.1027210718378895</v>
       </c>
       <c r="Q16">
-        <v>1.104789509836321</v>
+        <v>0.1342629635453333</v>
       </c>
       <c r="R16">
-        <v>1.104789509836321</v>
+        <v>1.208366671908</v>
       </c>
       <c r="S16">
-        <v>0.03219144601410207</v>
+        <v>0.002995390302772574</v>
       </c>
       <c r="T16">
-        <v>0.03219144601410207</v>
+        <v>0.004440735437517996</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.343933494675933</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H17">
-        <v>0.343933494675933</v>
+        <v>0.370337</v>
       </c>
       <c r="I17">
-        <v>0.108730846242797</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J17">
-        <v>0.108730846242797</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.24739225000338</v>
+        <v>2.111355666666667</v>
       </c>
       <c r="N17">
-        <v>3.24739225000338</v>
+        <v>6.334067</v>
       </c>
       <c r="O17">
-        <v>0.2993073609606174</v>
+        <v>0.1699677490010241</v>
       </c>
       <c r="P17">
-        <v>0.2993073609606174</v>
+        <v>0.19940707402807</v>
       </c>
       <c r="Q17">
-        <v>1.116886965127204</v>
+        <v>0.2606377078421112</v>
       </c>
       <c r="R17">
-        <v>1.116886965127204</v>
+        <v>2.345739370579</v>
       </c>
       <c r="S17">
-        <v>0.03254394264394622</v>
+        <v>0.005814795398460924</v>
       </c>
       <c r="T17">
-        <v>0.03254394264394622</v>
+        <v>0.008620568733216781</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.343933494675933</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H18">
-        <v>0.343933494675933</v>
+        <v>0.370337</v>
       </c>
       <c r="I18">
-        <v>0.108730846242797</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J18">
-        <v>0.108730846242797</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.934066310413586</v>
+        <v>2.575657333333333</v>
       </c>
       <c r="N18">
-        <v>0.934066310413586</v>
+        <v>7.726972</v>
       </c>
       <c r="O18">
-        <v>0.08609151614863289</v>
+        <v>0.207344828754407</v>
       </c>
       <c r="P18">
-        <v>0.08609151614863289</v>
+        <v>0.2432580643079437</v>
       </c>
       <c r="Q18">
-        <v>0.3212566903995995</v>
+        <v>0.3179537366182222</v>
       </c>
       <c r="R18">
-        <v>0.3212566903995995</v>
+        <v>2.861583629564</v>
       </c>
       <c r="S18">
-        <v>0.009360803405166275</v>
+        <v>0.0070935089934534</v>
       </c>
       <c r="T18">
-        <v>0.009360803405166275</v>
+        <v>0.0105162912273649</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.343933494675933</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H19">
-        <v>0.343933494675933</v>
+        <v>0.370337</v>
       </c>
       <c r="I19">
-        <v>0.108730846242797</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J19">
-        <v>0.108730846242797</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.05149290086781</v>
+        <v>2.249971</v>
       </c>
       <c r="N19">
-        <v>2.05149290086781</v>
+        <v>4.499942</v>
       </c>
       <c r="O19">
-        <v>0.1890830792576864</v>
+        <v>0.1811265208534658</v>
       </c>
       <c r="P19">
-        <v>0.1890830792576864</v>
+        <v>0.141665736645353</v>
       </c>
       <c r="Q19">
-        <v>0.7055771226983333</v>
+        <v>0.2777491700756667</v>
       </c>
       <c r="R19">
-        <v>0.7055771226983333</v>
+        <v>1.666495020454</v>
       </c>
       <c r="S19">
-        <v>0.0205591632178821</v>
+        <v>0.006196550028980049</v>
       </c>
       <c r="T19">
-        <v>0.0205591632178821</v>
+        <v>0.006124352537870058</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.343933494675933</v>
+        <v>0.1536683333333333</v>
       </c>
       <c r="H20">
-        <v>0.343933494675933</v>
+        <v>0.461005</v>
       </c>
       <c r="I20">
-        <v>0.108730846242797</v>
+        <v>0.04258694108248363</v>
       </c>
       <c r="J20">
-        <v>0.108730846242797</v>
+        <v>0.05381506751849974</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.41269662219061</v>
+        <v>3.2518115</v>
       </c>
       <c r="N20">
-        <v>2.41269662219061</v>
+        <v>6.503622999999999</v>
       </c>
       <c r="O20">
-        <v>0.222374694275296</v>
+        <v>0.2617763977697</v>
       </c>
       <c r="P20">
-        <v>0.222374694275296</v>
+        <v>0.2047449818594686</v>
       </c>
       <c r="Q20">
-        <v>0.8298071808628357</v>
+        <v>0.4997004535191666</v>
       </c>
       <c r="R20">
-        <v>0.8298071808628357</v>
+        <v>2.998202721115</v>
       </c>
       <c r="S20">
-        <v>0.02417898869153619</v>
+        <v>0.01114825602860301</v>
       </c>
       <c r="T20">
-        <v>0.02417898869153619</v>
+        <v>0.01101836502284131</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,1053 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.461005</v>
+      </c>
+      <c r="I21">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J21">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>1.145672333333333</v>
+      </c>
+      <c r="N21">
+        <v>3.437017</v>
+      </c>
+      <c r="O21">
+        <v>0.09222858595721402</v>
+      </c>
+      <c r="P21">
+        <v>0.1082030713212751</v>
+      </c>
+      <c r="Q21">
+        <v>0.1760535580094444</v>
+      </c>
+      <c r="R21">
+        <v>1.584482022085</v>
+      </c>
+      <c r="S21">
+        <v>0.003927733356280651</v>
+      </c>
+      <c r="T21">
+        <v>0.005822955588863464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.461005</v>
+      </c>
+      <c r="I22">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J22">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.087628</v>
+      </c>
+      <c r="N22">
+        <v>3.262884</v>
+      </c>
+      <c r="O22">
+        <v>0.08755591766418912</v>
+      </c>
+      <c r="P22">
+        <v>0.1027210718378895</v>
+      </c>
+      <c r="Q22">
+        <v>0.1671339820466667</v>
+      </c>
+      <c r="R22">
+        <v>1.50420583842</v>
+      </c>
+      <c r="S22">
+        <v>0.00372873870698761</v>
+      </c>
+      <c r="T22">
+        <v>0.005527941416528685</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.461005</v>
+      </c>
+      <c r="I23">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J23">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.111355666666667</v>
+      </c>
+      <c r="N23">
+        <v>6.334067</v>
+      </c>
+      <c r="O23">
+        <v>0.1699677490010241</v>
+      </c>
+      <c r="P23">
+        <v>0.19940707402807</v>
+      </c>
+      <c r="Q23">
+        <v>0.3244485063705556</v>
+      </c>
+      <c r="R23">
+        <v>2.920036557335</v>
+      </c>
+      <c r="S23">
+        <v>0.007238406512628979</v>
+      </c>
+      <c r="T23">
+        <v>0.01073110515248706</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.461005</v>
+      </c>
+      <c r="I24">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J24">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.575657333333333</v>
+      </c>
+      <c r="N24">
+        <v>7.726972</v>
+      </c>
+      <c r="O24">
+        <v>0.207344828754407</v>
+      </c>
+      <c r="P24">
+        <v>0.2432580643079437</v>
+      </c>
+      <c r="Q24">
+        <v>0.3957969696511111</v>
+      </c>
+      <c r="R24">
+        <v>3.56217272686</v>
+      </c>
+      <c r="S24">
+        <v>0.008830182005921592</v>
+      </c>
+      <c r="T24">
+        <v>0.01309094915515154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.461005</v>
+      </c>
+      <c r="I25">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J25">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.249971</v>
+      </c>
+      <c r="N25">
+        <v>4.499942</v>
+      </c>
+      <c r="O25">
+        <v>0.1811265208534658</v>
+      </c>
+      <c r="P25">
+        <v>0.141665736645353</v>
+      </c>
+      <c r="Q25">
+        <v>0.3457492936183333</v>
+      </c>
+      <c r="R25">
+        <v>2.07449576171</v>
+      </c>
+      <c r="S25">
+        <v>0.007713624472061789</v>
+      </c>
+      <c r="T25">
+        <v>0.007623751182627677</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H26">
+        <v>1.643757</v>
+      </c>
+      <c r="I26">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J26">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.2518115</v>
+      </c>
+      <c r="N26">
+        <v>6.503622999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.2617763977697</v>
+      </c>
+      <c r="P26">
+        <v>0.2047449818594686</v>
+      </c>
+      <c r="Q26">
+        <v>1.781729305268499</v>
+      </c>
+      <c r="R26">
+        <v>10.690375831611</v>
+      </c>
+      <c r="S26">
+        <v>0.03975016298046313</v>
+      </c>
+      <c r="T26">
+        <v>0.03928702429442318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H27">
+        <v>1.643757</v>
+      </c>
+      <c r="I27">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J27">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>1.145672333333333</v>
+      </c>
+      <c r="N27">
+        <v>3.437017</v>
+      </c>
+      <c r="O27">
+        <v>0.09222858595721402</v>
+      </c>
+      <c r="P27">
+        <v>0.1082030713212751</v>
+      </c>
+      <c r="Q27">
+        <v>0.6277356392076666</v>
+      </c>
+      <c r="R27">
+        <v>5.649620752869</v>
+      </c>
+      <c r="S27">
+        <v>0.01400470536874831</v>
+      </c>
+      <c r="T27">
+        <v>0.02076229977957601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H28">
+        <v>1.643757</v>
+      </c>
+      <c r="I28">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J28">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.087628</v>
+      </c>
+      <c r="N28">
+        <v>3.262884</v>
+      </c>
+      <c r="O28">
+        <v>0.08755591766418912</v>
+      </c>
+      <c r="P28">
+        <v>0.1027210718378895</v>
+      </c>
+      <c r="Q28">
+        <v>0.5959320461319999</v>
+      </c>
+      <c r="R28">
+        <v>5.363388415188</v>
+      </c>
+      <c r="S28">
+        <v>0.01329517109528494</v>
+      </c>
+      <c r="T28">
+        <v>0.01971039880046625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.343933494675933</v>
-      </c>
-      <c r="H21">
-        <v>0.343933494675933</v>
-      </c>
-      <c r="I21">
-        <v>0.108730846242797</v>
-      </c>
-      <c r="J21">
-        <v>0.108730846242797</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2.20404248070245</v>
-      </c>
-      <c r="N21">
-        <v>2.20404248070245</v>
-      </c>
-      <c r="O21">
-        <v>0.2031433493577673</v>
-      </c>
-      <c r="P21">
-        <v>0.2031433493577673</v>
-      </c>
-      <c r="Q21">
-        <v>0.7580440328022062</v>
-      </c>
-      <c r="R21">
-        <v>0.7580440328022062</v>
-      </c>
-      <c r="S21">
-        <v>0.02208794828426619</v>
-      </c>
-      <c r="T21">
-        <v>0.02208794828426619</v>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H29">
+        <v>1.643757</v>
+      </c>
+      <c r="I29">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J29">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>2.111355666666667</v>
+      </c>
+      <c r="N29">
+        <v>6.334067</v>
+      </c>
+      <c r="O29">
+        <v>0.1699677490010241</v>
+      </c>
+      <c r="P29">
+        <v>0.19940707402807</v>
+      </c>
+      <c r="Q29">
+        <v>1.156851885524333</v>
+      </c>
+      <c r="R29">
+        <v>10.411666969719</v>
+      </c>
+      <c r="S29">
+        <v>0.0258092241385223</v>
+      </c>
+      <c r="T29">
+        <v>0.03826277201361521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H30">
+        <v>1.643757</v>
+      </c>
+      <c r="I30">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J30">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.575657333333333</v>
+      </c>
+      <c r="N30">
+        <v>7.726972</v>
+      </c>
+      <c r="O30">
+        <v>0.207344828754407</v>
+      </c>
+      <c r="P30">
+        <v>0.2432580643079437</v>
+      </c>
+      <c r="Q30">
+        <v>1.411251590422667</v>
+      </c>
+      <c r="R30">
+        <v>12.701264313804</v>
+      </c>
+      <c r="S30">
+        <v>0.03148485045391624</v>
+      </c>
+      <c r="T30">
+        <v>0.04667701936079747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H31">
+        <v>1.643757</v>
+      </c>
+      <c r="I31">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J31">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.249971</v>
+      </c>
+      <c r="N31">
+        <v>4.499942</v>
+      </c>
+      <c r="O31">
+        <v>0.1811265208534658</v>
+      </c>
+      <c r="P31">
+        <v>0.141665736645353</v>
+      </c>
+      <c r="Q31">
+        <v>1.232801860349</v>
+      </c>
+      <c r="R31">
+        <v>7.396811162093999</v>
+      </c>
+      <c r="S31">
+        <v>0.02750365879181976</v>
+      </c>
+      <c r="T31">
+        <v>0.02718320706435402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.3443785</v>
+      </c>
+      <c r="H32">
+        <v>0.688757</v>
+      </c>
+      <c r="I32">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J32">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.2518115</v>
+      </c>
+      <c r="N32">
+        <v>6.503622999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.2617763977697</v>
+      </c>
+      <c r="P32">
+        <v>0.2047449818594686</v>
+      </c>
+      <c r="Q32">
+        <v>1.11985396665275</v>
+      </c>
+      <c r="R32">
+        <v>4.479415866610999</v>
+      </c>
+      <c r="S32">
+        <v>0.02498380509156905</v>
+      </c>
+      <c r="T32">
+        <v>0.01646180852276464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.3443785</v>
+      </c>
+      <c r="H33">
+        <v>0.688757</v>
+      </c>
+      <c r="I33">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J33">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>1.145672333333333</v>
+      </c>
+      <c r="N33">
+        <v>3.437017</v>
+      </c>
+      <c r="O33">
+        <v>0.09222858595721402</v>
+      </c>
+      <c r="P33">
+        <v>0.1082030713212751</v>
+      </c>
+      <c r="Q33">
+        <v>0.3945449196448333</v>
+      </c>
+      <c r="R33">
+        <v>2.367269517869</v>
+      </c>
+      <c r="S33">
+        <v>0.008802248923347227</v>
+      </c>
+      <c r="T33">
+        <v>0.008699691809240318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.3443785</v>
+      </c>
+      <c r="H34">
+        <v>0.688757</v>
+      </c>
+      <c r="I34">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J34">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.087628</v>
+      </c>
+      <c r="N34">
+        <v>3.262884</v>
+      </c>
+      <c r="O34">
+        <v>0.08755591766418912</v>
+      </c>
+      <c r="P34">
+        <v>0.1027210718378895</v>
+      </c>
+      <c r="Q34">
+        <v>0.374555699198</v>
+      </c>
+      <c r="R34">
+        <v>2.247334195188</v>
+      </c>
+      <c r="S34">
+        <v>0.008356291858901743</v>
+      </c>
+      <c r="T34">
+        <v>0.008258930697550022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.3443785</v>
+      </c>
+      <c r="H35">
+        <v>0.688757</v>
+      </c>
+      <c r="I35">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J35">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2.111355666666667</v>
+      </c>
+      <c r="N35">
+        <v>6.334067</v>
+      </c>
+      <c r="O35">
+        <v>0.1699677490010241</v>
+      </c>
+      <c r="P35">
+        <v>0.19940707402807</v>
+      </c>
+      <c r="Q35">
+        <v>0.7271054974531667</v>
+      </c>
+      <c r="R35">
+        <v>4.362632984719</v>
+      </c>
+      <c r="S35">
+        <v>0.01622163475803559</v>
+      </c>
+      <c r="T35">
+        <v>0.01603263259945452</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.3443785</v>
+      </c>
+      <c r="H36">
+        <v>0.688757</v>
+      </c>
+      <c r="I36">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J36">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.575657333333333</v>
+      </c>
+      <c r="N36">
+        <v>7.726972</v>
+      </c>
+      <c r="O36">
+        <v>0.207344828754407</v>
+      </c>
+      <c r="P36">
+        <v>0.2432580643079437</v>
+      </c>
+      <c r="Q36">
+        <v>0.8870010089673334</v>
+      </c>
+      <c r="R36">
+        <v>5.322006053803999</v>
+      </c>
+      <c r="S36">
+        <v>0.01978888407236105</v>
+      </c>
+      <c r="T36">
+        <v>0.01955831903613781</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.3443785</v>
+      </c>
+      <c r="H37">
+        <v>0.688757</v>
+      </c>
+      <c r="I37">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J37">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.249971</v>
+      </c>
+      <c r="N37">
+        <v>4.499942</v>
+      </c>
+      <c r="O37">
+        <v>0.1811265208534658</v>
+      </c>
+      <c r="P37">
+        <v>0.141665736645353</v>
+      </c>
+      <c r="Q37">
+        <v>0.7748416380234999</v>
+      </c>
+      <c r="R37">
+        <v>3.099366552094</v>
+      </c>
+      <c r="S37">
+        <v>0.01728662221831823</v>
+      </c>
+      <c r="T37">
+        <v>0.0113901410902118</v>
       </c>
     </row>
   </sheetData>
